--- a/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2613D482-CFA3-430D-8C71-1EC52168155E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0345E9-90F7-496C-86E7-EE57E22FE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F75F8FC1-1FB2-4CC4-B9DF-813B5CEAB5BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7325D916-536A-48B3-B869-14E2807618D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="418">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,364 +209,364 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>97,61%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>41,59%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>58,41%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>43,68%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>23,22%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>76,78%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
@@ -575,55 +575,55 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,65%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,35%</t>
+    <t>97,3%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>3,11%</t>
@@ -632,19 +632,19 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>98,3%</t>
@@ -653,289 +653,283 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>12,04%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,96%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>13,68%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>86,32%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
@@ -944,367 +938,361 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>88,83%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>79,31%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA4F49-F681-4B54-AE44-2C8C10065761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08DB0A7-4932-4A99-8DFA-8F29D92243A2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2935,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FC6715-268A-4694-A7F4-0A9FC86E5B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7716EE-17A5-44E6-9A81-A5A3CF7F3953}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3250,7 +3238,7 @@
         <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3253,13 @@
         <v>672545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3280,13 +3268,13 @@
         <v>583544</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>1199</v>
@@ -3295,13 +3283,13 @@
         <v>1256089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3357,13 @@
         <v>25870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3384,13 +3372,13 @@
         <v>75258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3399,13 +3387,13 @@
         <v>101128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3408,13 @@
         <v>655993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3435,13 +3423,13 @@
         <v>635592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>1224</v>
@@ -3450,13 +3438,13 @@
         <v>1291584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3512,13 @@
         <v>59158</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3539,13 +3527,13 @@
         <v>104647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3554,13 +3542,13 @@
         <v>163806</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3563,13 @@
         <v>555459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -3590,13 +3578,13 @@
         <v>511552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>942</v>
@@ -3605,13 +3593,13 @@
         <v>1067010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3667,13 @@
         <v>70788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -3694,13 +3682,13 @@
         <v>135187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -3709,13 +3697,13 @@
         <v>205975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3718,13 @@
         <v>358641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -3745,13 +3733,13 @@
         <v>312613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>605</v>
@@ -3760,13 +3748,13 @@
         <v>671254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3822,13 @@
         <v>232771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>391</v>
@@ -3849,13 +3837,13 @@
         <v>418470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>601</v>
@@ -3864,13 +3852,13 @@
         <v>651242</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>326866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -3900,13 +3888,13 @@
         <v>324505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3915,13 +3903,13 @@
         <v>651370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3977,13 @@
         <v>405077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>719</v>
@@ -4004,13 +3992,13 @@
         <v>771416</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>1086</v>
@@ -4019,13 +4007,13 @@
         <v>1176493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>3021702</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>2579</v>
@@ -4055,13 +4043,13 @@
         <v>2786893</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>5421</v>
@@ -4154,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3545849D-EBC5-4A4F-B565-010BEA4CAAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC0206E-BCB4-4745-89AC-D24F54F1B966}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,10 +4734,10 @@
         <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4758,28 +4746,28 @@
         <v>104961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
       </c>
       <c r="N13" s="7">
-        <v>165757</v>
+        <v>165758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4782,13 @@
         <v>585251</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -4809,13 +4797,13 @@
         <v>544116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>1031</v>
@@ -4824,13 +4812,13 @@
         <v>1129368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4860,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4898,13 +4886,13 @@
         <v>70369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -4913,13 +4901,13 @@
         <v>147273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -4928,13 +4916,13 @@
         <v>217642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4937,13 @@
         <v>407549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
@@ -4964,13 +4952,13 @@
         <v>349576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>666</v>
@@ -4979,13 +4967,13 @@
         <v>757125</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5041,13 @@
         <v>146690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>292</v>
@@ -5068,13 +5056,13 @@
         <v>349467</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>452</v>
@@ -5083,13 +5071,13 @@
         <v>496157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5092,13 @@
         <v>444638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -5119,13 +5107,13 @@
         <v>428464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>830</v>
@@ -5134,13 +5122,13 @@
         <v>873102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>314603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>610</v>
@@ -5223,13 +5211,13 @@
         <v>693672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>922</v>
@@ -5238,13 +5226,13 @@
         <v>1008275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5262,13 @@
         <v>2850870</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>5647</v>
@@ -5289,13 +5277,13 @@
         <v>5930617</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C6FBF0-1CE9-4533-A5DD-F872FF7209B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FFE0FB-5352-4BEF-9AB7-5C6FB96A8FA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5390,7 +5378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5497,13 +5485,13 @@
         <v>12112</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5512,13 +5500,13 @@
         <v>26363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5527,13 +5515,13 @@
         <v>38475</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5536,13 @@
         <v>365567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5563,13 +5551,13 @@
         <v>328594</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5578,13 +5566,13 @@
         <v>694161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5640,13 @@
         <v>14484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5667,13 +5655,13 @@
         <v>41137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5682,13 +5670,13 @@
         <v>55621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5691,13 @@
         <v>413912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>423</v>
@@ -5718,13 +5706,13 @@
         <v>458078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -5733,13 +5721,13 @@
         <v>871990</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5795,13 @@
         <v>33190</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5822,13 +5810,13 @@
         <v>69893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5837,13 +5825,13 @@
         <v>103084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5846,13 @@
         <v>524062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>745</v>
@@ -5873,13 +5861,13 @@
         <v>540554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -5888,13 +5876,13 @@
         <v>1064615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5950,13 @@
         <v>85290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5977,13 +5965,13 @@
         <v>156266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -5992,13 +5980,13 @@
         <v>241556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6001,13 @@
         <v>638700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>910</v>
@@ -6028,28 +6016,28 @@
         <v>590995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>1496</v>
       </c>
       <c r="N14" s="7">
-        <v>1229696</v>
+        <v>1229695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6079,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6117,13 +6105,13 @@
         <v>107415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -6132,13 +6120,13 @@
         <v>171134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>396</v>
@@ -6147,13 +6135,13 @@
         <v>278550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6156,13 @@
         <v>492742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>721</v>
@@ -6183,13 +6171,13 @@
         <v>425929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>1269</v>
@@ -6198,13 +6186,13 @@
         <v>918670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,16 +6257,16 @@
         <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>165258</v>
+        <v>165259</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>760</v>
@@ -6287,13 +6275,13 @@
         <v>405853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>1010</v>
@@ -6302,13 +6290,13 @@
         <v>571112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6311,13 @@
         <v>532496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -6338,13 +6326,13 @@
         <v>620784</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>1726</v>
@@ -6353,13 +6341,13 @@
         <v>1153280</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,7 +6359,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6427,13 +6415,13 @@
         <v>417750</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>1425</v>
@@ -6442,13 +6430,13 @@
         <v>870647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>1916</v>
@@ -6457,13 +6445,13 @@
         <v>1288397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6466,13 @@
         <v>2967478</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>3942</v>
@@ -6493,28 +6481,28 @@
         <v>2964934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>6827</v>
       </c>
       <c r="N23" s="7">
-        <v>5932412</v>
+        <v>5932411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6544,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0345E9-90F7-496C-86E7-EE57E22FE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D305720D-4F2C-47A5-A880-1E51A7DF8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7325D916-536A-48B3-B869-14E2807618D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD38F5DB-63AE-4741-A87D-7FFF616ECCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="422">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,103 +209,103 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,29%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>3,79%</t>
@@ -314,910 +314,922 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,58%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>73,57%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
   </si>
   <si>
     <t>78,83%</t>
@@ -1704,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08DB0A7-4932-4A99-8DFA-8F29D92243A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A9B8B-ED16-4051-B70D-D3CFBF173139}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2806,7 +2818,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2836,7 +2848,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2857,7 +2869,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2887,7 +2899,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2923,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7716EE-17A5-44E6-9A81-A5A3CF7F3953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5167780-3E75-4946-AABF-138E2CC17FBC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3983,7 +3995,7 @@
         <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>719</v>
@@ -3992,10 +4004,10 @@
         <v>771416</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>164</v>
@@ -4031,10 +4043,10 @@
         <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>2579</v>
@@ -4043,13 +4055,13 @@
         <v>2786893</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>5421</v>
@@ -4142,7 +4154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC0206E-BCB4-4745-89AC-D24F54F1B966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4FFDC-8195-4668-AF37-A975E34CCE07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4469,7 @@
         <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>580480</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -4487,13 +4499,13 @@
         <v>540098</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4502,13 +4514,13 @@
         <v>1120578</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4588,13 @@
         <v>22412</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4591,13 +4603,13 @@
         <v>52391</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4606,13 +4618,13 @@
         <v>74803</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4639,13 @@
         <v>646685</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -4642,13 +4654,13 @@
         <v>608995</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>1228</v>
@@ -4657,13 +4669,13 @@
         <v>1255680</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4743,13 @@
         <v>60797</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4746,28 +4758,28 @@
         <v>104961</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
       </c>
       <c r="N13" s="7">
-        <v>165758</v>
+        <v>165757</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>585251</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -4797,13 +4809,13 @@
         <v>544116</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>1031</v>
@@ -4812,13 +4824,13 @@
         <v>1129368</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4872,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4886,13 +4898,13 @@
         <v>70369</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -4901,13 +4913,13 @@
         <v>147273</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -4916,13 +4928,13 @@
         <v>217642</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4949,13 @@
         <v>407549</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
@@ -4952,13 +4964,13 @@
         <v>349576</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>666</v>
@@ -4967,13 +4979,13 @@
         <v>757125</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5053,13 @@
         <v>146690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>292</v>
@@ -5056,13 +5068,13 @@
         <v>349467</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>452</v>
@@ -5071,13 +5083,13 @@
         <v>496157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5104,13 @@
         <v>444638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -5107,13 +5119,13 @@
         <v>428464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>830</v>
@@ -5122,13 +5134,13 @@
         <v>873102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5208,13 @@
         <v>314603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>610</v>
@@ -5211,13 +5223,13 @@
         <v>693672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>922</v>
@@ -5226,13 +5238,13 @@
         <v>1008275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5259,13 @@
         <v>3079747</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H23" s="7">
         <v>2728</v>
@@ -5262,13 +5274,13 @@
         <v>2850870</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>5647</v>
@@ -5277,10 +5289,10 @@
         <v>5930617</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>296</v>
@@ -5361,7 +5373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FFE0FB-5352-4BEF-9AB7-5C6FB96A8FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CCC1D2-70AF-442E-8625-643362A2180E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,13 +5512,13 @@
         <v>26363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5515,13 +5527,13 @@
         <v>38475</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5548,13 @@
         <v>365567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5551,13 +5563,13 @@
         <v>328594</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5566,13 +5578,13 @@
         <v>694161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5652,13 @@
         <v>14484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5655,13 +5667,13 @@
         <v>41137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5670,13 +5682,13 @@
         <v>55621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,10 +5703,10 @@
         <v>413912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>325</v>
@@ -5795,13 +5807,13 @@
         <v>33190</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5810,13 +5822,13 @@
         <v>69893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5825,13 +5837,13 @@
         <v>103084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5858,13 @@
         <v>524062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>745</v>
@@ -5861,13 +5873,13 @@
         <v>540554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -5876,13 +5888,13 @@
         <v>1064615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5962,13 @@
         <v>85290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5965,13 +5977,13 @@
         <v>156266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -5980,13 +5992,13 @@
         <v>241556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6013,13 @@
         <v>638700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>910</v>
@@ -6016,13 +6028,13 @@
         <v>590995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>1496</v>
@@ -6031,13 +6043,13 @@
         <v>1229695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6117,13 @@
         <v>107415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -6120,13 +6132,13 @@
         <v>171134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>396</v>
@@ -6135,13 +6147,13 @@
         <v>278550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6168,13 @@
         <v>492742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>721</v>
@@ -6171,13 +6183,13 @@
         <v>425929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>1269</v>
@@ -6186,13 +6198,13 @@
         <v>918670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6272,13 @@
         <v>165259</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>760</v>
@@ -6275,13 +6287,13 @@
         <v>405853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>1010</v>
@@ -6290,13 +6302,13 @@
         <v>571112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6323,13 @@
         <v>532496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -6326,13 +6338,13 @@
         <v>620784</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>1726</v>
@@ -6341,13 +6353,13 @@
         <v>1153280</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6427,13 @@
         <v>417750</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>1425</v>
@@ -6430,13 +6442,13 @@
         <v>870647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>1916</v>
@@ -6445,13 +6457,13 @@
         <v>1288397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6478,13 @@
         <v>2967478</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>3942</v>
@@ -6481,13 +6493,13 @@
         <v>2964934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>6827</v>
@@ -6496,13 +6508,13 @@
         <v>5932411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D305720D-4F2C-47A5-A880-1E51A7DF8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBFB6A-4A0C-4993-AC4E-9E1B02AC2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD38F5DB-63AE-4741-A87D-7FFF616ECCD9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5465FEE-63A9-4B00-946C-D2309CD83D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -209,211 +209,205 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>16,48%</t>
@@ -422,31 +416,31 @@
     <t>13,07%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>20,55%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>79,45%</t>
   </si>
   <si>
     <t>86,93%</t>
@@ -455,19 +449,19 @@
     <t>69,81%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>41,59%</t>
@@ -476,31 +470,31 @@
     <t>37,21%</t>
   </si>
   <si>
-    <t>46,59%</t>
+    <t>46,12%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
   </si>
   <si>
     <t>58,41%</t>
   </si>
   <si>
-    <t>53,41%</t>
+    <t>53,88%</t>
   </si>
   <si>
     <t>62,79%</t>
@@ -509,64 +503,70 @@
     <t>43,68%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>89,31%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
@@ -575,361 +575,367 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>12,04%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>87,96%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>28,63%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>71,37%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>80,43%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
@@ -938,211 +944,217 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>98,14%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>17,9%</t>
@@ -1151,31 +1163,31 @@
     <t>14,93%</t>
   </si>
   <si>
-    <t>21,05%</t>
+    <t>21,18%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>78,95%</t>
+    <t>78,82%</t>
   </si>
   <si>
     <t>85,07%</t>
@@ -1184,127 +1196,115 @@
     <t>71,34%</t>
   </si>
   <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>76,73%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>60,47%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>20,69%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>88,79%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>79,31%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A9B8B-ED16-4051-B70D-D3CFBF173139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAA9044-DCDB-4DD6-8E3C-FCA2A7A551E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2818,7 +2818,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2848,7 +2848,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2869,7 +2869,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2899,7 +2899,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2935,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5167780-3E75-4946-AABF-138E2CC17FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A395EFE-504A-479F-B09E-6A9ED59D162C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3250,7 +3250,7 @@
         <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>672545</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3280,13 +3280,13 @@
         <v>583544</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>1199</v>
@@ -3295,13 +3295,13 @@
         <v>1256089</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>25870</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3384,13 +3384,13 @@
         <v>75258</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3399,13 +3399,13 @@
         <v>101128</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3420,13 @@
         <v>655993</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3435,13 +3435,13 @@
         <v>635592</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>1224</v>
@@ -3450,13 +3450,13 @@
         <v>1291584</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3524,13 @@
         <v>59158</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3539,13 +3539,13 @@
         <v>104647</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3554,13 +3554,13 @@
         <v>163806</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3575,13 @@
         <v>555459</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -3590,13 +3590,13 @@
         <v>511552</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>942</v>
@@ -3605,13 +3605,13 @@
         <v>1067010</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3679,13 @@
         <v>70788</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -3694,13 +3694,13 @@
         <v>135187</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -3709,13 +3709,13 @@
         <v>205975</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3730,13 @@
         <v>358641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -3745,13 +3745,13 @@
         <v>312613</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>605</v>
@@ -3760,13 +3760,13 @@
         <v>671254</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3834,13 @@
         <v>232771</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>391</v>
@@ -3849,13 +3849,13 @@
         <v>418470</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>601</v>
@@ -3864,13 +3864,13 @@
         <v>651242</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>326866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>303</v>
@@ -3900,13 +3900,13 @@
         <v>324505</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3915,13 +3915,13 @@
         <v>651370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3989,13 @@
         <v>405077</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>719</v>
@@ -4004,13 +4004,13 @@
         <v>771416</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>1086</v>
@@ -4019,13 +4019,13 @@
         <v>1176493</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,10 +4040,10 @@
         <v>3021702</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>169</v>
@@ -4154,7 +4154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4FFDC-8195-4668-AF37-A975E34CCE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A77242-026C-4E40-846E-2C0983F02AC1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4469,7 +4469,7 @@
         <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4484,13 @@
         <v>580480</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -4499,13 +4499,13 @@
         <v>540098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4514,13 +4514,13 @@
         <v>1120578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4588,13 @@
         <v>22412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4603,13 +4603,13 @@
         <v>52391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4618,13 +4618,13 @@
         <v>74803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4639,13 @@
         <v>646685</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -4654,13 +4654,13 @@
         <v>608995</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>1228</v>
@@ -4669,13 +4669,13 @@
         <v>1255680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4743,13 @@
         <v>60797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -4758,13 +4758,13 @@
         <v>104961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -4773,13 +4773,13 @@
         <v>165757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4794,13 @@
         <v>585251</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -5056,10 +5056,10 @@
         <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>292</v>
@@ -5068,13 +5068,13 @@
         <v>349467</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>452</v>
@@ -5083,13 +5083,13 @@
         <v>496157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5104,13 @@
         <v>444638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -5119,13 +5119,13 @@
         <v>428464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>830</v>
@@ -5134,13 +5134,13 @@
         <v>873102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5208,13 @@
         <v>314603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>610</v>
@@ -5223,13 +5223,13 @@
         <v>693672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>922</v>
@@ -5238,13 +5238,13 @@
         <v>1008275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5259,13 @@
         <v>3079747</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7">
         <v>2728</v>
@@ -5274,13 +5274,13 @@
         <v>2850870</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>5647</v>
@@ -5289,13 +5289,13 @@
         <v>5930617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CCC1D2-70AF-442E-8625-643362A2180E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA13C35-4628-4396-9E40-028ED844486D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5390,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5497,13 +5497,13 @@
         <v>12112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5512,13 +5512,13 @@
         <v>26363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5527,13 +5527,13 @@
         <v>38475</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5548,13 @@
         <v>365567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5563,13 +5563,13 @@
         <v>328594</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5578,13 +5578,13 @@
         <v>694161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5652,13 @@
         <v>14484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5667,13 +5667,13 @@
         <v>41137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5682,13 +5682,13 @@
         <v>55621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>413912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>423</v>
@@ -5718,13 +5718,13 @@
         <v>458078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>712</v>
@@ -5733,13 +5733,13 @@
         <v>871990</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5807,13 @@
         <v>33190</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5822,13 +5822,13 @@
         <v>69893</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5837,13 +5837,13 @@
         <v>103084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5858,13 @@
         <v>524062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>745</v>
@@ -5873,13 +5873,13 @@
         <v>540554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -5888,13 +5888,13 @@
         <v>1064615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5962,13 @@
         <v>85290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5977,13 +5977,13 @@
         <v>156266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -5992,13 +5992,13 @@
         <v>241556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6013,13 @@
         <v>638700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>910</v>
@@ -6028,28 +6028,28 @@
         <v>590995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>1496</v>
       </c>
       <c r="N14" s="7">
-        <v>1229695</v>
+        <v>1229696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6091,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6117,13 +6117,13 @@
         <v>107415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -6132,13 +6132,13 @@
         <v>171134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>396</v>
@@ -6147,13 +6147,13 @@
         <v>278550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6168,13 @@
         <v>492742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>721</v>
@@ -6183,13 +6183,13 @@
         <v>425929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>1269</v>
@@ -6198,13 +6198,13 @@
         <v>918670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,16 +6269,16 @@
         <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>165259</v>
+        <v>165258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>760</v>
@@ -6287,13 +6287,13 @@
         <v>405853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>1010</v>
@@ -6302,13 +6302,13 @@
         <v>571112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6323,13 @@
         <v>532496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -6338,13 +6338,13 @@
         <v>620784</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>1726</v>
@@ -6353,13 +6353,13 @@
         <v>1153280</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,7 +6371,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6427,13 +6427,13 @@
         <v>417750</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>1425</v>
@@ -6442,13 +6442,13 @@
         <v>870647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>1916</v>
@@ -6457,13 +6457,13 @@
         <v>1288397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6478,13 @@
         <v>2967478</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>3942</v>
@@ -6493,10 +6493,10 @@
         <v>2964934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>418</v>
@@ -6505,7 +6505,7 @@
         <v>6827</v>
       </c>
       <c r="N23" s="7">
-        <v>5932411</v>
+        <v>5932412</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>419</v>
@@ -6556,7 +6556,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
